--- a/EmailBlast/Excel/Tycadome/Entertainment/Industry People/Competition.xlsx
+++ b/EmailBlast/Excel/Tycadome/Entertainment/Industry People/Competition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Industry People\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Entertainment\Industry People\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A480AF25-DF48-4A71-8CA5-5F95E5BCD551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0589D0C-F4BA-457C-AFBF-F6889226876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="5" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Mp3" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,51 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>About I Am Entertainment Magazine</t>
+  </si>
+  <si>
+    <t>info@iaemagazine.com</t>
+  </si>
+  <si>
+    <t>http://www.iaemagazine.com</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Check the website</t>
+  </si>
+  <si>
+    <t>Alarm Magazine</t>
+  </si>
+  <si>
+    <t>scottm@alarmpress.com</t>
+  </si>
+  <si>
+    <t>http://alarm-magazine.com</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Attn: Music Editor, 900 N. Franklin St. #300, Chicago, IL 60610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They want to know about shows. </t>
+  </si>
+  <si>
+    <t>The A.V. Club</t>
+  </si>
+  <si>
+    <t>http://www.avclub.com</t>
+  </si>
+  <si>
+    <t>Interviews, essays and reviews of movies, music and books.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3718F9ED-44A3-4FF6-B346-97B8005E5A5C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -789,9 +834,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4ED0D-F936-4DD5-9947-764A260F3F05}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -833,6 +878,82 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -1014,6 +1135,44 @@
       <c r="C3" s="1"/>
       <c r="I3" s="3"/>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>3123411301</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
